--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="364">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_NotificationRequestNdE</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-notificationrequest</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,79 +45,79 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-12-16T07:50:40+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ressource CommunicationRequest utilisée dans le Flux 4 - TransmissionOrdreNotification</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Profil NotificationRequestNdE représentant le flux 4 - TransmissionOrdreNotification du volet Notification d'évènements du CI-SIS</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CommunicationRequest</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/CommunicationRequest</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2021-12-01</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Ressource CommunicationRequest utilisée dans le Flux 4 - TransmissionOrdreNotification</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Profil NotificationRequestNdE représentant le flux 4 - TransmissionOrdreNotification du volet Notification d'évènements du CI-SIS</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CommunicationRequest</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CommunicationRequest</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}event-subject:L’un des attributs subject ou about doit être présent {count(subject) = 1 xor count(about) = 1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}event-subject:L’un des attributs subject ou about doit être présent {subject.exists() xor about.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -544,7 +544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://esante.gouv.fr/ci-sis/fhir/StructureDefinition/NdE_SubscriptionNdE)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription)
 </t>
   </si>
   <si>
@@ -1353,102 +1353,100 @@
       <c r="A7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1636,10 +1634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1719,7 +1717,7 @@
         <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>

--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T07:50:40+00:00</t>
+    <t>2026-01-02T15:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T15:03:02+00:00</t>
+    <t>2026-01-09T09:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-notificationrequest</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-notificationrequest</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:23:40+00:00</t>
+    <t>2026-01-15T15:19:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,7 +452,7 @@
     <t>EventEmissionTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-emission-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-emission-time}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>EventTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-time}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>EventType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/event-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/event-type}
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/nde-subscription)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/nde-subscription)
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>RecipientEndpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/recipient-endpoint}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/recipient-endpoint}
 </t>
   </si>
   <si>

--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:19:42+00:00</t>
+    <t>2026-01-16T10:55:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:55:18+00:00</t>
+    <t>2026-01-21T09:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:17:46+00:00</t>
+    <t>2026-01-23T10:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
+++ b/ajout-RC/ig/StructureDefinition-nde-notificationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T10:31:33+00:00</t>
+    <t>2026-01-30T14:49:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
